--- a/HDB/BCTT.xlsx
+++ b/HDB/BCTT.xlsx
@@ -1590,238 +1590,238 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17260</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22251</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130408</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5266</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226179</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>318721</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>681294</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>714639</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>778375</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1020925</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1172805</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1176407</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1377535</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1356097</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1410024</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1863886</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1744818</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1831440</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1884382</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1768706</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2161165</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2029910</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2323741</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2504870</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2888034</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2883597</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2780364</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3021583</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3212161</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3362798</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>3468701</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>3306</t>
+          <t>3306282</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>3752996</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>4043391</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4551225</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4484850</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>4932102</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>4840808</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4955</t>
+          <t>4954515</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>4916148</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>7473</t>
+          <t>7472503</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7160350</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>7720</t>
+          <t>7719878</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>7773</t>
+          <t>7773445</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>8202720</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>7408100</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>9819</t>
+          <t>9819158</t>
         </is>
       </c>
     </row>
@@ -1833,238 +1833,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9873</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41292</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217674</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62657</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27316</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29989</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41546</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29178</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50601</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35110</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73271</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110879</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114577</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115441</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97277</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141848</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144173</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149117</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160738</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>158110</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142042</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328852</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>320979</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>313421</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>543972</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328914</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>741131</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608285</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>835243</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>693273</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>820017</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>677195</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>600864</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317959</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591784</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356762</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224569</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>412110</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>423479</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>733290</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1331560</t>
         </is>
       </c>
     </row>
@@ -2076,238 +2076,238 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9089</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3906</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5972</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-24633</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>277</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8293</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9340</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46400</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52126</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44123</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56907</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34006</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56288</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32138</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7481</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22698</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55020</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51052</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169545</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94380</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80905</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-296</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54814</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24920</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18928</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30484</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93324</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24324</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42453</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20574</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91897</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80329</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96502</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-65593</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-49550</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>145057</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185863</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>283333</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174886</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310407</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123899</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234621</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188241</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423977</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15671</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2331,202 +2331,202 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>719</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20596</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16569</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33356</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45120</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1452</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1972</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83317</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26835</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1885</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29805</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2674</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14105</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39223</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63695</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17173</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54445</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19782</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54977</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35667</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9494</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38285</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12837</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8813</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>351</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27963</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75910</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29936</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>-92</t>
+          <t>-92086</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-78664</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-279</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141710</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6162</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389280</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>241355</t>
         </is>
       </c>
     </row>
@@ -2541,227 +2541,227 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28788</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111596</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28324</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41345</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20065</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5341</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117868</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43105</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117189</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342925</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-18323</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160114</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166928</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8126</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6348</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128076</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33535</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75491</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-32218</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119040</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28065</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24922</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>396401</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55665</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11835</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36982</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308663</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19346</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11513</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3876</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24161</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515414</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>516324</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111106</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65351</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-49917</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>-89</t>
+          <t>-88800</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141619</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-16744</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19526</t>
         </is>
       </c>
     </row>
@@ -2773,238 +2773,238 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171627</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-7086</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11481</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10727</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-657</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9697</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10608</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17165</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78691</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22067</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31143</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122287</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121186</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72138</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90075</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103021</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224927</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41713</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100821</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127751</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197998</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52741</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130533</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76717</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258852</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51740</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88243</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26331</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16323</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98560</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103713</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139972</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185845</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131606</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121631</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114897</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>-109</t>
+          <t>-108981</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73380</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88358</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150584</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393549</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478817</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>-272</t>
+          <t>-272338</t>
         </is>
       </c>
     </row>
@@ -3016,106 +3016,106 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>949</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115782</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26116</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13331</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16783</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>454</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128020</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43098</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>250</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22431</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26111</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27069</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr"/>
@@ -3134,25 +3134,25 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2252</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr"/>
@@ -3160,22 +3160,22 @@
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22024</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45980</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23569</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72649</t>
         </is>
       </c>
     </row>
@@ -3187,238 +3187,238 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29957</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32427</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212386</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>134158</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236793</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408874</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474916</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>577269</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>599775</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>700006</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>769277</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>831101</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>992130</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>893980</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>990128</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1051472</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1158046</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1009080</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1099993</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1148111</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1184272</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1137368</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1292906</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1284028</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1366195</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1607759</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1130489</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1562467</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1872114</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1631572</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1682984</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>1411602</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656610</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1925612</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>2033070</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000925</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2671102</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1958618</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>2238587</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2301873</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2630124</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2454639</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3029780</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2951077</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>3540462</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>2524523</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>2782029</t>
         </is>
       </c>
     </row>
@@ -3430,238 +3430,238 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44062</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11634</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122131</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100440</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27363</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36224</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>270571</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339597</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275080</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>433267</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>627767</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495647</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>713169</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>592603</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722113</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1350145</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>768665</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1293937</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1263935</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>967922</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1473105</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1328364</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1414664</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1587010</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1977459</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1543086</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2064890</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1906061</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2092569</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2536894</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2571027</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>2294331</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>2973225</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3196823</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>3548</t>
+          <t>3548482</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3393346</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>3197744</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3698789</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>4174804</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>3783</t>
+          <t>3783355</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>5627535</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>5297426</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>5263</t>
+          <t>5263236</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>5583895</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>5908</t>
+          <t>5907668</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>6680030</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>8854</t>
+          <t>8853858</t>
         </is>
       </c>
     </row>
@@ -3673,238 +3673,238 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13551</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-608</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47313</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36539</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19610</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5074</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104288</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167411</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>211641</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143543</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286389</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>353320</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210353</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205256</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228392</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>318952</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264160</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247179</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>248139</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146552</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>352401</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226644</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305733</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>349486</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>407220</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>292438</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>407958</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>432226</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655763</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>436712</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477774</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403307</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>988067</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>669308</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>772314</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>680925</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>945792</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>956090</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1433167</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636089</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1242405</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1269851</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1126231</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1093488</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>1831864</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1324795</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>4141072</t>
         </is>
       </c>
     </row>
@@ -3916,238 +3916,238 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30511</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12242</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74818</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63901</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7753</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31150</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166283</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>172186</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63439</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289724</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341378</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142327</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502816</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>387347</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493721</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1031193</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504505</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>1046758</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1015796</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821370</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1120704</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101720</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1108931</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1237524</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1570239</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1250648</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656932</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1473835</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>1436806</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2100182</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2093253</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1891024</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1985158</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2527515</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2776168</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>2712421</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2251952</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2742699</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2741637</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3147266</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4385130</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>4027575</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>4137</t>
+          <t>4137005</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>4490407</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>4075804</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>5355</t>
+          <t>5355235</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>4712786</t>
         </is>
       </c>
     </row>
@@ -4159,238 +4159,238 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23907</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56306</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76807</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23303</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131240</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136352</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49741</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>230659</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297772</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>115346</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>400901</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>309596</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403424</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>824533</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>416840</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>833914</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>819901</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655631</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>892065</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>878726</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>896228</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>989040</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1256341</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1001305</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1320397</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1178686</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1146485</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1680115</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1671475</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1513039</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1588870</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2020439</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2220093</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>2169487</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1799451</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>2193712</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2179528</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2515158</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3447615</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>3213172</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3251852</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3545636</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3237228</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>4358</t>
+          <t>4357672</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3676059</t>
         </is>
       </c>
     </row>
@@ -4402,238 +4402,238 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23907</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56306</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76807</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23303</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131240</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122805</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24445</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194897</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254639</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65922</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352855</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>267158</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351649</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>778973</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348693</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>757260</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>738032</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>567135</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>779657</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>798822</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>786224</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>898682</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1121038</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>888629</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1210550</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1091310</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1058236</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1563388</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1551879</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>1431065</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1507187</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1918399</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>2079127</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015985</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1736284</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>2088010</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2158553</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2480440</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3343895</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3109772</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3114891</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>3424</t>
+          <t>3423876</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>3114654</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>4234754</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3514860</t>
         </is>
       </c>
     </row>
